--- a/CETC/ExcelFile/dtSideTileBar.xlsx
+++ b/CETC/ExcelFile/dtSideTileBar.xlsx
@@ -495,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +506,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
